--- a/Bajan/Таблица.xlsx
+++ b/Bajan/Таблица.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Big-User\Desktop\Таблица для расчета\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\git projects\auto-create\Bajan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757566D2-CA7E-4744-8679-DFC8D8440F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>ПДВ-1</t>
   </si>
@@ -164,9 +165,6 @@
     <t>Стоимость привода</t>
   </si>
   <si>
-    <t>Кнопка Выгрузить в Exel</t>
-  </si>
-  <si>
     <t>Стоимость реза, м.п.</t>
   </si>
   <si>
@@ -245,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -319,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,17 +335,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,73 +624,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -712,7 +718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -733,7 +739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -752,7 +758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -769,7 +775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -782,7 +788,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -793,92 +799,140 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
@@ -886,73 +940,17 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Bajan/Таблица.xlsx
+++ b/Bajan/Таблица.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\git projects\auto-create\Bajan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757566D2-CA7E-4744-8679-DFC8D8440F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04493F66-8B4A-4C8D-ACC5-AFAD01C11D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>ПДВ-1</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Стоимость оси/осей</t>
   </si>
   <si>
-    <t>Доп. Расходы</t>
-  </si>
-  <si>
     <t>Стоимость привода</t>
   </si>
   <si>
@@ -238,13 +235,22 @@
   </si>
   <si>
     <t>Наценка на привод</t>
+  </si>
+  <si>
+    <t>Окно 17</t>
+  </si>
+  <si>
+    <t>Доп. Расходы %</t>
+  </si>
+  <si>
+    <t>дополнительно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +271,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -336,14 +349,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,54 +661,55 @@
     <col min="14" max="14" width="16.109375" customWidth="1"/>
     <col min="15" max="15" width="14.77734375" customWidth="1"/>
     <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -718,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -739,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -758,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -775,7 +789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -788,7 +802,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -799,142 +813,149 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="O14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="Q14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -948,6 +969,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="5"/>
@@ -959,6 +981,7 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>